--- a/modelowanie_18_POlszowy_lista2/zad2.xlsx
+++ b/modelowanie_18_POlszowy_lista2/zad2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansnieg/Documents/ISSP6/MK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansnieg/Documents/ISSP6/MK/modelowanie_18_POlszowy_lista2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="1780" windowWidth="27240" windowHeight="18920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="zad1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="zad1" localSheetId="0">zad1!$A$1:$A$100</definedName>
-    <definedName name="zad1b" localSheetId="0">zad1!$B$1:$B$202</definedName>
-    <definedName name="zad1b_2" localSheetId="0">zad1!$B$1:$B$201</definedName>
+    <definedName name="zad1b" localSheetId="0">zad1!$B$1:$B$201</definedName>
+    <definedName name="zad1b_2" localSheetId="0">zad1!$B$1:$B$200</definedName>
+    <definedName name="zad2Dev" localSheetId="0">zad1!$D$1:$D$100</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,14 +35,14 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="zad1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/zad2a.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/modelowanie_18_POlszowy_lista2/zad2a.csv" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="2" name="zad1b" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/zad2b.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/modelowanie_18_POlszowy_lista2/zad2b.csv" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
@@ -49,6 +50,13 @@
   </connection>
   <connection id="3" name="zad1b11" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/zad2b.csv" decimal="," thousands=" ">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="zad2Dev" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/modelowanie_18_POlszowy_lista2/zad2Dev.csv" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
@@ -67,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -125,9 +136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -558,11 +570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2146034400"/>
-        <c:axId val="-2146031312"/>
+        <c:axId val="-2087850704"/>
+        <c:axId val="-2140225872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146034400"/>
+        <c:axId val="-2087850704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146031312"/>
+        <c:crossAx val="-2140225872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -612,7 +624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146031312"/>
+        <c:axId val="-2140225872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146034400"/>
+        <c:crossAx val="-2087850704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,10 +1433,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>zad1!$B$1:$B$201</c:f>
+              <c:f>zad1!$B$1:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1498,421 +1510,421 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>757.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1473.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1616.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1498.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1149.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>787.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>253.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>291.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>310.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>338.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>325.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>349.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>373.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>437.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>428.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>408.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>379.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>364.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>382.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>348.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>355.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>312.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>292.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>252.0</c:v>
-                </c:pt>
                 <c:pt idx="119">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>259.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>214.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>200.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>160.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>156.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>121.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>115.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>98.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>89.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>66.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>57.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>43.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>35.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>33.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>15.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>18.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>9.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>11.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>0.0</c:v>
@@ -1924,7 +1936,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>0.0</c:v>
@@ -1942,7 +1954,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>0.0</c:v>
@@ -2023,9 +2035,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,11 +2051,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2147478592"/>
-        <c:axId val="-2147460480"/>
+        <c:axId val="-2086284304"/>
+        <c:axId val="2078884592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147478592"/>
+        <c:axId val="-2086284304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147460480"/>
+        <c:crossAx val="2078884592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147460480"/>
+        <c:axId val="2078884592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -2149,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147478592"/>
+        <c:crossAx val="-2086284304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2902,11 +2911,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2118646320"/>
-        <c:axId val="-2118643536"/>
+        <c:axId val="-2070623632"/>
+        <c:axId val="-2070620832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118646320"/>
+        <c:axId val="-2070623632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,7 +2924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118643536"/>
+        <c:crossAx val="-2070620832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2923,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118643536"/>
+        <c:axId val="-2070620832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118646320"/>
+        <c:crossAx val="-2070623632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2943,6 +2952,575 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Odchylenie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> średniokwadratowe dla konkretnego kroku</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>zad1!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2110570080"/>
+        <c:axId val="2110580400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2110570080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110580400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2110580400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110570080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3031,6 +3609,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4050,20 +4668,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4084,16 +5205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4115,15 +5236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4144,6 +5265,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5167,14 +6318,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad2Dev" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad1b" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -5441,17 +6596,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5465,6 +6622,9 @@
       <c r="C1">
         <v>-100</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -5475,6 +6635,9 @@
       </c>
       <c r="C2">
         <v>-99</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -5487,6 +6650,9 @@
       <c r="C3">
         <v>-98</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5501,6 +6667,9 @@
       <c r="C4">
         <v>-97</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -5513,9 +6682,12 @@
       <c r="C5">
         <v>-96</v>
       </c>
-      <c r="O5" s="1">
-        <f>STDEVP(B1:B201)</f>
-        <v>108.06427887650838</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <f>AVERAGE(D:D)</f>
+        <v>12.83</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -5528,6 +6700,9 @@
       <c r="C6">
         <v>-95</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -5539,6 +6714,9 @@
       <c r="C7">
         <v>-94</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -5550,6 +6728,9 @@
       <c r="C8">
         <v>-93</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -5561,6 +6742,9 @@
       <c r="C9">
         <v>-92</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -5572,6 +6756,9 @@
       <c r="C10">
         <v>-91</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5583,6 +6770,9 @@
       <c r="C11">
         <v>-90</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -5594,6 +6784,9 @@
       <c r="C12">
         <v>-89</v>
       </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -5605,6 +6798,9 @@
       <c r="C13">
         <v>-88</v>
       </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -5616,6 +6812,9 @@
       <c r="C14">
         <v>-87</v>
       </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -5627,6 +6826,9 @@
       <c r="C15">
         <v>-86</v>
       </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -5638,8 +6840,11 @@
       <c r="C16">
         <v>-85</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-3</v>
       </c>
@@ -5649,8 +6854,11 @@
       <c r="C17">
         <v>-84</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-4</v>
       </c>
@@ -5660,8 +6868,11 @@
       <c r="C18">
         <v>-83</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-3</v>
       </c>
@@ -5671,8 +6882,11 @@
       <c r="C19">
         <v>-82</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-4</v>
       </c>
@@ -5682,8 +6896,11 @@
       <c r="C20">
         <v>-81</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-3</v>
       </c>
@@ -5693,8 +6910,11 @@
       <c r="C21">
         <v>-80</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-4</v>
       </c>
@@ -5704,8 +6924,11 @@
       <c r="C22">
         <v>-79</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-5</v>
       </c>
@@ -5715,8 +6938,11 @@
       <c r="C23">
         <v>-78</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-6</v>
       </c>
@@ -5726,19 +6952,25 @@
       <c r="C24">
         <v>-77</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-5</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>-76</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-4</v>
       </c>
@@ -5748,8 +6980,11 @@
       <c r="C26">
         <v>-75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-5</v>
       </c>
@@ -5759,8 +6994,11 @@
       <c r="C27">
         <v>-74</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-6</v>
       </c>
@@ -5770,19 +7008,25 @@
       <c r="C28">
         <v>-73</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-5</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>-72</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -5792,19 +7036,25 @@
       <c r="C30">
         <v>-71</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-5</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>-70</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-6</v>
       </c>
@@ -5814,8 +7064,11 @@
       <c r="C32">
         <v>-69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-5</v>
       </c>
@@ -5825,8 +7078,11 @@
       <c r="C33">
         <v>-68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-4</v>
       </c>
@@ -5836,19 +7092,25 @@
       <c r="C34">
         <v>-67</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-5</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>-66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-4</v>
       </c>
@@ -5858,19 +7120,25 @@
       <c r="C36">
         <v>-65</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-5</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-64</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-4</v>
       </c>
@@ -5880,19 +7148,25 @@
       <c r="C38">
         <v>-63</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-3</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>-62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-4</v>
       </c>
@@ -5902,19 +7176,25 @@
       <c r="C40">
         <v>-61</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-5</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>-60</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-4</v>
       </c>
@@ -5924,19 +7204,25 @@
       <c r="C42">
         <v>-59</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-5</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-58</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-4</v>
       </c>
@@ -5946,19 +7232,25 @@
       <c r="C44">
         <v>-57</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-5</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>-56</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-4</v>
       </c>
@@ -5968,19 +7260,25 @@
       <c r="C46">
         <v>-55</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-5</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>-54</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-4</v>
       </c>
@@ -5990,19 +7288,25 @@
       <c r="C48">
         <v>-53</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-5</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>-52</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-6</v>
       </c>
@@ -6012,19 +7316,25 @@
       <c r="C50">
         <v>-51</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-5</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-4</v>
       </c>
@@ -6034,19 +7344,25 @@
       <c r="C52">
         <v>-49</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-5</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>-48</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-4</v>
       </c>
@@ -6056,19 +7372,25 @@
       <c r="C54">
         <v>-47</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-5</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>-46</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-4</v>
       </c>
@@ -6078,19 +7400,25 @@
       <c r="C56">
         <v>-45</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-5</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>-44</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-4</v>
       </c>
@@ -6100,19 +7428,25 @@
       <c r="C58">
         <v>-43</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-5</v>
       </c>
       <c r="B59">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>-42</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-4</v>
       </c>
@@ -6122,19 +7456,25 @@
       <c r="C60">
         <v>-41</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-5</v>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>-40</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-6</v>
       </c>
@@ -6144,19 +7484,25 @@
       <c r="C62">
         <v>-39</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-5</v>
       </c>
       <c r="B63">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>-38</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-6</v>
       </c>
@@ -6166,19 +7512,25 @@
       <c r="C64">
         <v>-37</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-5</v>
       </c>
       <c r="B65">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>-36</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-4</v>
       </c>
@@ -6188,19 +7540,25 @@
       <c r="C66">
         <v>-35</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-5</v>
       </c>
       <c r="B67">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>-34</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-4</v>
       </c>
@@ -6210,19 +7568,25 @@
       <c r="C68">
         <v>-33</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-3</v>
       </c>
       <c r="B69">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>-32</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-2</v>
       </c>
@@ -6232,19 +7596,25 @@
       <c r="C70">
         <v>-31</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-3</v>
       </c>
       <c r="B71">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>-30</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-2</v>
       </c>
@@ -6254,19 +7624,25 @@
       <c r="C72">
         <v>-29</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-3</v>
       </c>
       <c r="B73">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>-28</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-2</v>
       </c>
@@ -6276,19 +7652,25 @@
       <c r="C74">
         <v>-27</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-3</v>
       </c>
       <c r="B75">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>-26</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-4</v>
       </c>
@@ -6298,19 +7680,25 @@
       <c r="C76">
         <v>-25</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-3</v>
       </c>
       <c r="B77">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>-24</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-2</v>
       </c>
@@ -6320,19 +7708,25 @@
       <c r="C78">
         <v>-23</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-3</v>
       </c>
       <c r="B79">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>-22</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-2</v>
       </c>
@@ -6342,19 +7736,25 @@
       <c r="C80">
         <v>-21</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-3</v>
       </c>
       <c r="B81">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>-20</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-2</v>
       </c>
@@ -6364,19 +7764,25 @@
       <c r="C82">
         <v>-19</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-1</v>
       </c>
       <c r="B83">
-        <v>291</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>-18</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-2</v>
       </c>
@@ -6386,19 +7792,25 @@
       <c r="C84">
         <v>-17</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1</v>
       </c>
       <c r="B85">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>-16</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2</v>
       </c>
@@ -6408,19 +7820,25 @@
       <c r="C86">
         <v>-15</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-1</v>
       </c>
       <c r="B87">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="C87">
         <v>-14</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>-2</v>
       </c>
@@ -6430,19 +7848,25 @@
       <c r="C88">
         <v>-13</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-1</v>
       </c>
       <c r="B89">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="C89">
         <v>-12</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-2</v>
       </c>
@@ -6452,19 +7876,25 @@
       <c r="C90">
         <v>-11</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-3</v>
       </c>
       <c r="B91">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="C91">
         <v>-10</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-2</v>
       </c>
@@ -6474,19 +7904,25 @@
       <c r="C92">
         <v>-9</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-3</v>
       </c>
       <c r="B93">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="C93">
         <v>-8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2</v>
       </c>
@@ -6496,19 +7932,25 @@
       <c r="C94">
         <v>-7</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-3</v>
       </c>
       <c r="B95">
-        <v>349</v>
+        <v>757</v>
       </c>
       <c r="C95">
         <v>-6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-2</v>
       </c>
@@ -6518,19 +7960,25 @@
       <c r="C96">
         <v>-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-1</v>
       </c>
       <c r="B97">
-        <v>373</v>
+        <v>1084</v>
       </c>
       <c r="C97">
         <v>-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -6540,19 +7988,25 @@
       <c r="C98">
         <v>-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-1</v>
       </c>
       <c r="B99">
-        <v>437</v>
+        <v>1473</v>
       </c>
       <c r="C99">
         <v>-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -6562,16 +8016,19 @@
       <c r="C100">
         <v>-1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>428</v>
+        <v>1616</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>0</v>
       </c>
@@ -6579,15 +8036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>408</v>
+        <v>1498</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>0</v>
       </c>
@@ -6595,15 +8052,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>379</v>
+        <v>1149</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>0</v>
       </c>
@@ -6611,15 +8068,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107">
-        <v>364</v>
+        <v>787</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>0</v>
       </c>
@@ -6627,15 +8084,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="C109">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>0</v>
       </c>
@@ -6643,15 +8100,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="C111">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>0</v>
       </c>
@@ -6661,7 +8118,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113">
-        <v>355</v>
+        <v>97</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -6677,7 +8134,7 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -6693,7 +8150,7 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -6709,7 +8166,7 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="C119">
         <v>18</v>
@@ -6725,7 +8182,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>20</v>
@@ -6741,7 +8198,7 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>22</v>
@@ -6757,7 +8214,7 @@
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>24</v>
@@ -6773,7 +8230,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>26</v>
@@ -6789,7 +8246,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>28</v>
@@ -6805,7 +8262,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>30</v>
@@ -6821,7 +8278,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>32</v>
@@ -6837,7 +8294,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>34</v>
@@ -6853,7 +8310,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>36</v>
@@ -6869,7 +8326,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>38</v>
@@ -6885,7 +8342,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>40</v>
@@ -6901,7 +8358,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>42</v>
@@ -6917,7 +8374,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>44</v>
@@ -6933,7 +8390,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>46</v>
@@ -6949,7 +8406,7 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>48</v>
@@ -6965,7 +8422,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>50</v>
@@ -6981,7 +8438,7 @@
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>52</v>
@@ -6997,7 +8454,7 @@
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>54</v>
@@ -7013,7 +8470,7 @@
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>56</v>
@@ -7029,7 +8486,7 @@
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>58</v>
@@ -7045,7 +8502,7 @@
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>60</v>
@@ -7061,7 +8518,7 @@
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>62</v>
@@ -7093,7 +8550,7 @@
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>66</v>
@@ -7141,7 +8598,7 @@
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>72</v>
@@ -7369,11 +8826,6 @@
       </c>
       <c r="C201">
         <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/modelowanie_18_POlszowy_lista2/zad2.xlsx
+++ b/modelowanie_18_POlszowy_lista2/zad2.xlsx
@@ -570,11 +570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2087850704"/>
-        <c:axId val="-2140225872"/>
+        <c:axId val="-2106108032"/>
+        <c:axId val="-2110499104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087850704"/>
+        <c:axId val="-2106108032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140225872"/>
+        <c:crossAx val="-2110499104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140225872"/>
+        <c:axId val="-2110499104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087850704"/>
+        <c:crossAx val="-2106108032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2051,11 +2051,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2086284304"/>
-        <c:axId val="2078884592"/>
+        <c:axId val="-2106121776"/>
+        <c:axId val="2143707824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2086284304"/>
+        <c:axId val="-2106121776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,7 +2098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078884592"/>
+        <c:crossAx val="2143707824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2106,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078884592"/>
+        <c:axId val="2143707824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -2158,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086284304"/>
+        <c:crossAx val="-2106121776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2911,11 +2911,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2070623632"/>
-        <c:axId val="-2070620832"/>
+        <c:axId val="-2077312752"/>
+        <c:axId val="-2077309968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070623632"/>
+        <c:axId val="-2077312752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070620832"/>
+        <c:crossAx val="-2077309968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2932,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070620832"/>
+        <c:axId val="-2077309968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,7 +2943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070623632"/>
+        <c:crossAx val="-2077312752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2995,12 +2995,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Odchylenie</a:t>
+              <a:t>Średniokwadratowe</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> średniokwadratowe dla konkretnego kroku</a:t>
+              <a:t> odchylene dla każdego kroku</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3037,29 +3038,30 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>zad1!$D$1:$D$101</c:f>
+              <c:f>zad1!$D$1:$D$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -3136,7 +3138,7 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7.0</c:v>
@@ -3148,7 +3150,7 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8.0</c:v>
@@ -3160,7 +3162,7 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>9.0</c:v>
@@ -3196,7 +3198,7 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>12.0</c:v>
@@ -3208,7 +3210,7 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>13.0</c:v>
@@ -3220,7 +3222,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>14.0</c:v>
@@ -3232,67 +3234,67 @@
                   <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>20.0</c:v>
@@ -3301,10 +3303,10 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>21.0</c:v>
@@ -3313,56 +3315,57 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>23.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="95">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="96">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="94">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>25.0</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>25.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>26.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3372,19 +3375,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2110570080"/>
-        <c:axId val="2110580400"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-2077253088"/>
+        <c:axId val="-2077249664"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="2110570080"/>
+        <c:axId val="-2077253088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3421,7 +3422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110580400"/>
+        <c:crossAx val="-2077249664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110580400"/>
+        <c:axId val="-2077249664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110570080"/>
+        <c:crossAx val="-2077253088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4669,7 +4670,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4777,6 +4778,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4787,6 +4793,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4818,6 +4829,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5267,20 +5281,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6598,7 +6612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6607,7 +6621,7 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
   </cols>
@@ -6687,7 +6701,7 @@
       </c>
       <c r="O5" s="2">
         <f>AVERAGE(D:D)</f>
-        <v>12.83</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -6981,7 +6995,7 @@
         <v>-75</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7037,7 +7051,7 @@
         <v>-71</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7093,7 +7107,7 @@
         <v>-67</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7261,7 +7275,7 @@
         <v>-55</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7317,7 +7331,7 @@
         <v>-51</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7373,7 +7387,7 @@
         <v>-47</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7429,7 +7443,7 @@
         <v>-43</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7457,7 +7471,7 @@
         <v>-41</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7471,7 +7485,7 @@
         <v>-40</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7485,7 +7499,7 @@
         <v>-39</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7499,7 +7513,7 @@
         <v>-38</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7527,7 +7541,7 @@
         <v>-36</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7541,7 +7555,7 @@
         <v>-35</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7555,7 +7569,7 @@
         <v>-34</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7583,7 +7597,7 @@
         <v>-32</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7597,7 +7611,7 @@
         <v>-31</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7611,7 +7625,7 @@
         <v>-30</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7639,7 +7653,7 @@
         <v>-28</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,7 +7667,7 @@
         <v>-27</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7667,7 +7681,7 @@
         <v>-26</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7695,7 +7709,7 @@
         <v>-24</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7709,7 +7723,7 @@
         <v>-23</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7751,7 +7765,7 @@
         <v>-20</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7765,7 +7779,7 @@
         <v>-19</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7807,7 +7821,7 @@
         <v>-16</v>
       </c>
       <c r="D85">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -7821,7 +7835,7 @@
         <v>-15</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -7835,7 +7849,7 @@
         <v>-14</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -7863,7 +7877,7 @@
         <v>-12</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7877,7 +7891,7 @@
         <v>-11</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -7905,7 +7919,7 @@
         <v>-9</v>
       </c>
       <c r="D92">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -7919,7 +7933,7 @@
         <v>-8</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -7933,7 +7947,7 @@
         <v>-7</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -7947,7 +7961,7 @@
         <v>-6</v>
       </c>
       <c r="D95">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -7961,7 +7975,7 @@
         <v>-5</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -7975,7 +7989,7 @@
         <v>-4</v>
       </c>
       <c r="D97">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -7989,7 +8003,7 @@
         <v>-3</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8017,7 +8031,7 @@
         <v>-1</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
